--- a/500all/speech_level/speeches_CHRG-114hhrg24709.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg24709.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>committee_name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>400047</t>
-  </si>
-  <si>
-    <t>Robert A. Brady</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Brady. Thank you, Madam Chairman.    Madam Chairman, I oppose the funding resolution before us today. I will have a longer statement for the record, but let me briefly say that 3 House committees, 12 States, and 1 grand jury have already investigated the matter this panel was created to examine. None found evidence of wrongdoing. And yet, if we pass this measure, we will have wasted over $1.5 million in taxpayers' money on this redundant and unnecessary exercise.    I am troubled by the treatment of the minority Members of the Committee. It is my understanding that the majority has misused unilaterally subpoena authority, with the Chair issuing 42 unilateral subpoenas without consulting with the Democrats. At best, this is a violation of the longstanding House rules and practice. At worst, it violates the bipartisan spirit of cooperation the American people expect from their Congress. I understand that Democrats have been denied access to the panel records, including documents that have then later been used in hearings and depositions.    It is time for the Panel to end conducting this unnecessary and expensive work.    Thank you again, Madam Chairman.</t>
@@ -472,11 +469,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -498,11 +493,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -524,11 +517,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -550,11 +541,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -576,11 +565,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -602,11 +589,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -628,11 +613,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg24709.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg24709.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -50,6 +53,12 @@
   </si>
   <si>
     <t>400047</t>
+  </si>
+  <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>Robert</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Brady. Thank you, Madam Chairman.    Madam Chairman, I oppose the funding resolution before us today. I will have a longer statement for the record, but let me briefly say that 3 House committees, 12 States, and 1 grand jury have already investigated the matter this panel was created to examine. None found evidence of wrongdoing. And yet, if we pass this measure, we will have wasted over $1.5 million in taxpayers' money on this redundant and unnecessary exercise.    I am troubled by the treatment of the minority Members of the Committee. It is my understanding that the majority has misused unilaterally subpoena authority, with the Chair issuing 42 unilateral subpoenas without consulting with the Democrats. At best, this is a violation of the longstanding House rules and practice. At worst, it violates the bipartisan spirit of cooperation the American people expect from their Congress. I understand that Democrats have been denied access to the panel records, including documents that have then later been used in hearings and depositions.    It is time for the Panel to end conducting this unnecessary and expensive work.    Thank you again, Madam Chairman.</t>
@@ -419,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +436,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,173 +458,211 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg24709.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg24709.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400047</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Brady</t>
@@ -428,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +442,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,208 +467,232 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
